--- a/data/input_newton.xlsx
+++ b/data/input_newton.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Hust\Numerical Analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtien\Desktop\BK\PPS\Tien 20251\Numerical-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCC5CAD-1F40-4E0E-996D-5EF114D97946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAEF920-030C-42D5-A411-E5280271D2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5090" yWindow="3610" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
   <si>
     <t>new</t>
@@ -61,7 +64,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -369,17 +372,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -388,13 +391,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0</v>
       </c>
@@ -406,7 +409,7 @@
         <v>1.0620000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -419,7 +422,7 @@
         <v>1.5143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -432,7 +435,7 @@
         <v>1.9576</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -445,7 +448,7 @@
         <v>2.3866000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -458,7 +461,7 @@
         <v>2.7957999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
@@ -471,7 +474,7 @@
         <v>3.1802000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
@@ -484,7 +487,7 @@
         <v>3.5347</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7</v>
       </c>
@@ -497,7 +500,7 @@
         <v>3.855</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -510,7 +513,7 @@
         <v>4.1368999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>9</v>
       </c>
@@ -522,8 +525,11 @@
         <f t="shared" si="0"/>
         <v>4.3769</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10</v>
       </c>
@@ -536,7 +542,7 @@
         <v>4.5720000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>11</v>
       </c>
@@ -549,7 +555,7 @@
         <v>4.7195999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>12</v>
       </c>
@@ -562,7 +568,7 @@
         <v>4.8182</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>13</v>
       </c>
@@ -575,7 +581,7 @@
         <v>4.8665000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>14</v>
       </c>
@@ -588,7 +594,7 @@
         <v>4.8642000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>15</v>
       </c>
@@ -601,7 +607,7 @@
         <v>4.8114999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>16</v>
       </c>
@@ -614,7 +620,7 @@
         <v>4.7093999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>17</v>
       </c>
@@ -627,7 +633,7 @@
         <v>4.5595999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>18</v>
       </c>
@@ -640,7 +646,7 @@
         <v>4.3642000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>19</v>
       </c>
@@ -653,7 +659,7 @@
         <v>4.1262999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>20</v>
       </c>
@@ -666,7 +672,7 @@
         <v>3.8492999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>21</v>
       </c>
@@ -679,7 +685,7 @@
         <v>3.5373000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>22</v>
       </c>
@@ -692,7 +698,7 @@
         <v>3.1947999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>23</v>
       </c>
@@ -705,7 +711,7 @@
         <v>2.8267000000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>24</v>
       </c>
@@ -718,7 +724,7 @@
         <v>2.4384000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>25</v>
       </c>
@@ -731,7 +737,7 @@
         <v>2.0354000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>26</v>
       </c>
@@ -744,7 +750,7 @@
         <v>1.6234</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>27</v>
       </c>
@@ -757,7 +763,7 @@
         <v>1.2083999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>28</v>
       </c>
@@ -770,7 +776,7 @@
         <v>0.79620000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>29</v>
       </c>
@@ -783,7 +789,7 @@
         <v>0.39279999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>30</v>
       </c>
@@ -796,7 +802,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>31</v>
       </c>
@@ -809,7 +815,7 @@
         <v>-0.3649</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>32</v>
       </c>
@@ -822,7 +828,7 @@
         <v>-0.70830000000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>33</v>
       </c>
@@ -835,7 +841,7 @@
         <v>-1.0216000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>34</v>
       </c>
@@ -848,7 +854,7 @@
         <v>-1.3001</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>35</v>
       </c>
@@ -861,7 +867,7 @@
         <v>-1.5399</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>36</v>
       </c>
@@ -874,7 +880,7 @@
         <v>-1.7375</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>37</v>
       </c>
@@ -887,7 +893,7 @@
         <v>-1.89</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>38</v>
       </c>
@@ -900,7 +906,7 @@
         <v>-1.9952000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>39</v>
       </c>
@@ -913,7 +919,7 @@
         <v>-2.0514999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>40</v>
       </c>
@@ -926,7 +932,7 @@
         <v>-2.0579000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>41</v>
       </c>
@@ -939,7 +945,7 @@
         <v>-2.0144000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>42</v>
       </c>
@@ -952,7 +958,7 @@
         <v>-1.9214</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>43</v>
       </c>
@@ -965,7 +971,7 @@
         <v>-1.78</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>44</v>
       </c>
@@ -978,7 +984,7 @@
         <v>-1.5922000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>45</v>
       </c>
@@ -991,7 +997,7 @@
         <v>-1.3604000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>46</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>-1.0876999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>47</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>-0.77790000000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>48</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>-0.435</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>49</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>-6.3899999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>50</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>0.33040000000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>51</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>0.74270000000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>52</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>1.1671</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>53</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>1.5979000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>54</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>2.0293000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>55</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>2.4552999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>56</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>2.8700999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>57</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>3.2679</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>58</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>3.6435</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>59</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>3.9916</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>60</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>4.3074000000000003</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>61</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>4.5867000000000004</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>62</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>4.8257000000000003</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>63</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>5.0212000000000003</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>64</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>5.1703999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>65</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>5.2714999999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>66</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>5.3230000000000004</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>67</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>5.3243999999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>68</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>5.2756999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>69</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>5.1776999999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>70</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>5.0319000000000003</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>71</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>4.8402000000000003</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>72</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>4.6055000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>73</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>4.3311000000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>74</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>4.0209999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>75</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>3.6793999999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>76</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>3.3111999999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>77</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>2.9217</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>78</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>2.5162</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>79</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>2.1006</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>80</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>1.6806000000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>81</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>1.2622</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>82</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>0.85129999999999995</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>83</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>0.45369999999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>84</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>7.4899999999999994E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>85</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>-0.2797</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>86</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>-0.60509999999999997</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>87</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>-0.89670000000000005</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>88</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>-1.1504000000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>89</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>-1.3625</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>90</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>-1.5302</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>91</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>-1.6509</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>92</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>-1.7230000000000001</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>93</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>-1.7453000000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>94</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>-1.7175</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>95</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>-1.64</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>96</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>-1.5136000000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>97</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>-1.3402000000000001</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>98</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>-1.1220000000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>99</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>-0.86209999999999998</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>100</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>-0.56399999999999995</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>101</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>-0.23180000000000001</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>102</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>103</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>0.51639999999999997</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>104</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>0.92210000000000003</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>105</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>1.3414999999999999</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>106</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>1.7686999999999999</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>107</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>2.198</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>108</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>2.6234999999999999</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>109</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>3.0392000000000001</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>110</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>3.4394</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>111</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>3.8187000000000002</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>112</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>4.1718000000000002</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>113</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>4.4938000000000002</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>114</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>4.7804000000000002</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>115</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>5.0275999999999996</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>116</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>5.2320000000000002</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>117</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>5.3909000000000002</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>118</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>5.5019999999999998</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>119</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>5.5640000000000001</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>120</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>5.5758999999999999</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>121</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>5.5377000000000001</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>122</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>5.4499000000000004</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>123</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>5.3139000000000003</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>124</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>5.1315</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>125</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>4.9054000000000002</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>126</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>4.6387999999999998</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>127</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>4.3353999999999999</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>128</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>3.9994999999999998</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>129</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>3.6358000000000001</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>130</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>3.2494000000000001</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>131</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>2.8458000000000001</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>132</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>2.4306000000000001</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>133</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>2.0097</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>134</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>1.5888</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>135</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>1.1740999999999999</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>136</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>0.77110000000000001</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>137</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>0.38569999999999999</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>138</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>139</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>-0.31119999999999998</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>140</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>-0.6129</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>141</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>-0.87770000000000004</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>142</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>-1.1017999999999999</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>143</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>-1.282</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>144</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>-1.4157999999999999</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>145</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>-1.5013000000000001</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>146</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>-1.5373000000000001</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>147</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>-1.5230999999999999</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>148</v>
       </c>
@@ -2330,7 +2336,7 @@
         <v>-1.4590000000000001</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>149</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>-1.3458000000000001</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>150</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>-1.1850000000000001</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>151</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>-0.9788</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>152</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>-0.73009999999999997</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>153</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>-0.44219999999999998</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>154</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>-0.1191</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>155</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>0.23469999999999999</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>156</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>0.61439999999999995</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>157</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>1.0146999999999999</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>158</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>1.4301999999999999</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>159</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>160</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>2.2833000000000001</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>161</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>2.7092000000000001</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>162</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>3.1269</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>163</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>3.5304000000000002</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>164</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>3.9144000000000001</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>165</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>4.2735000000000003</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>166</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>4.6026999999999996</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>167</v>
       </c>
@@ -2577,7 +2583,7 @@
         <v>4.8975</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>168</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>5.1538000000000004</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>169</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>5.3681000000000001</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>170</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>5.5376000000000003</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>171</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>5.6597999999999997</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>172</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>5.7331000000000003</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>173</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>5.7565</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>174</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>5.7298</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>175</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>5.6532999999999998</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>176</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>5.5282</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>177</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>5.3563000000000001</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>178</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>5.1398999999999999</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>179</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>4.8821000000000003</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>180</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>4.5865999999999998</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>181</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>4.2575000000000003</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>182</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>3.8994</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>183</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>3.5173999999999999</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>184</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>3.1166999999999998</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>185</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>2.7031000000000001</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>186</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>2.2822</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>187</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>1.8601000000000001</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>188</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>1.4424999999999999</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>189</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>1.0354000000000001</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>190</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>0.64439999999999997</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>191</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>192</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>-6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>193</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>-0.3785</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>194</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>-0.65349999999999997</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>195</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>-0.88859999999999995</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>196</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>-1.0807</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>197</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>-1.2267999999999999</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>198</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>-1.3250999999999999</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>199</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>-1.3741000000000001</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>200</v>
       </c>
